--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.ferrari\Documents\R\automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6F91DB-042A-4515-BBE8-EA9E91320BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E0C7AE-E009-4BF5-A39C-E8BB66AF0490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{35A31CFB-0D6A-4E5D-AD17-F59A1D4E70CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{35A31CFB-0D6A-4E5D-AD17-F59A1D4E70CF}"/>
   </bookViews>
   <sheets>
     <sheet name="filtros_linhas" sheetId="1" r:id="rId1"/>
@@ -1274,9 +1274,6 @@
     <t xml:space="preserve"> |!</t>
   </si>
   <si>
-    <t>filter( grupo_despesa_codigo_grupo %in% c(3) &amp; modalidade_aplicacao_codigo != c(91) &amp; elemento_despesa_codigo %in% c(53,54) )</t>
-  </si>
-  <si>
     <t>Ação Governo</t>
   </si>
   <si>
@@ -1433,9 +1430,6 @@
     <t>Anexo_02</t>
   </si>
   <si>
-    <t>filter( grupo_despesa_codigo_grupo %in% c(3) &amp; modalidade_aplicacao_codigo != c(91) &amp; elemento_despesa_codigo %in% c(57,58) )</t>
-  </si>
-  <si>
     <t>despesa</t>
   </si>
   <si>
@@ -1575,6 +1569,12 @@
   </si>
   <si>
     <t>uo_orgao_superior_codigo</t>
+  </si>
+  <si>
+    <t>filter(  esfera_orcamentaria_codigo %in% c(1,2) &amp; unidade_orcamentaria_codigo  %in% c(33904,40904,25917,55902) &amp; grupo_despesa_codigo_grupo %in% c(3) &amp; modalidade_aplicacao_codigo != c(91) &amp; elemento_despesa_codigo %in% c(53,54) )</t>
+  </si>
+  <si>
+    <t>filter( esfera_orcamentaria_codigo %in% c(1,2) &amp; unidade_orcamentaria_codigo  %in% c(33904,40904,25917,55902) &amp; grupo_despesa_codigo_grupo %in% c(3) &amp; modalidade_aplicacao_codigo != c(91) &amp; elemento_despesa_codigo %in% c(57,58) )</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1668,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1684,6 +1684,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,7 +1722,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1754,6 +1760,16 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11228,47 +11244,47 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B56" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>63</v>
@@ -11276,74 +11292,74 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B59" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75">
       <c r="A66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -11374,175 +11390,175 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>413</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75">
       <c r="A3" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75">
       <c r="A4" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75">
       <c r="A6" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75">
       <c r="A7" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75">
       <c r="A8" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75">
       <c r="A9" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75">
       <c r="A10" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75">
       <c r="A11" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75">
       <c r="A12" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75">
       <c r="A13" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75">
       <c r="A14" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75">
       <c r="A15" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75">
       <c r="A16" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C16" s="15"/>
     </row>
@@ -11840,18 +11856,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376900E8-16D0-4FEB-A5AB-C0BD20B8D839}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="130" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11873,7 +11890,7 @@
       <c r="F1" t="s">
         <v>401</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="21" t="s">
         <v>402</v>
       </c>
     </row>
@@ -11888,7 +11905,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E2" t="s">
         <v>318</v>
@@ -11897,80 +11914,80 @@
         <f>VLOOKUP(E2,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>demais_despesas</v>
       </c>
-      <c r="G2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="G2" s="21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="19" customFormat="1">
+      <c r="A3" s="19">
         <v>2024</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="22" t="str">
         <f>VLOOKUP(E3,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>aposentadorias</v>
       </c>
-      <c r="G3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="G3" s="20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="19" customFormat="1">
+      <c r="A4" s="19">
         <v>2024</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="22" t="str">
         <f>VLOOKUP(E4,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>pensoes</v>
       </c>
-      <c r="G4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="G4" s="20" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="19" customFormat="1">
+      <c r="A5" s="19">
         <v>2024</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>461</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="22" t="str">
         <f>VLOOKUP(E5,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>outros_beneficios</v>
       </c>
-      <c r="G5" t="s">
-        <v>460</v>
+      <c r="G5" s="20" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11984,7 +12001,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E6" t="s">
         <v>316</v>
@@ -11993,8 +12010,8 @@
         <f>VLOOKUP(E6,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rgps_para_o_rpps</v>
       </c>
-      <c r="G6" t="s">
-        <v>464</v>
+      <c r="G6" s="21" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -12008,7 +12025,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E7" t="s">
         <v>320</v>
@@ -12017,8 +12034,8 @@
         <f>VLOOKUP(E7,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>a_detalhar</v>
       </c>
-      <c r="G7" t="s">
-        <v>465</v>
+      <c r="G7" s="21" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12032,7 +12049,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E8" t="s">
         <v>322</v>
@@ -12041,8 +12058,8 @@
         <f>VLOOKUP(E8,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>despesas_previdenciarias_intra_orcamentarias_v</v>
       </c>
-      <c r="G8" t="s">
-        <v>466</v>
+      <c r="G8" s="21" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -12065,8 +12082,8 @@
         <f>VLOOKUP(E9,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>receitas_previdenciarias_exceto_intra_orcamentarias_i</v>
       </c>
-      <c r="G9" t="s">
-        <v>467</v>
+      <c r="G9" s="21" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12089,8 +12106,8 @@
         <f>VLOOKUP(E10,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>receitas_correntes</v>
       </c>
-      <c r="G10" t="s">
-        <v>468</v>
+      <c r="G10" s="21" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -12113,8 +12130,8 @@
         <f>VLOOKUP(E11,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>receitas_de_contribuicoes</v>
       </c>
-      <c r="G11" t="s">
-        <v>469</v>
+      <c r="G11" s="21" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12137,8 +12154,8 @@
         <f>VLOOKUP(E12,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>dos_empregadores</v>
       </c>
-      <c r="G12" t="s">
-        <v>470</v>
+      <c r="G12" s="21" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -12161,8 +12178,8 @@
         <f>VLOOKUP(E13,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>outras_contribuicoes</v>
       </c>
-      <c r="G13" t="s">
-        <v>471</v>
+      <c r="G13" s="21" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -12185,8 +12202,8 @@
         <f>VLOOKUP(E14,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rpps_para_o_rgps</v>
       </c>
-      <c r="G14" t="s">
-        <v>472</v>
+      <c r="G14" s="21" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -12209,8 +12226,8 @@
         <f>VLOOKUP(E15,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>demais_receitas_correntes</v>
       </c>
-      <c r="G15" t="s">
-        <v>473</v>
+      <c r="G15" s="21" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -12233,8 +12250,8 @@
         <f>VLOOKUP(E16,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>alienacao_de_bens_direitos_e_ativos</v>
       </c>
-      <c r="G16" t="s">
-        <v>474</v>
+      <c r="G16" s="21" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12257,8 +12274,8 @@
         <f>VLOOKUP(E17,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>outras_receitas_de_capital</v>
       </c>
-      <c r="G17" t="s">
-        <v>475</v>
+      <c r="G17" s="21" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12281,8 +12298,8 @@
         <f>VLOOKUP(E18,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>receitas_previdenciarias_intra_orcamentarias_ii</v>
       </c>
-      <c r="G18" t="s">
-        <v>476</v>
+      <c r="G18" s="21" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12709,7 +12726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D527EEA-838C-472C-B303-51890342D295}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="C59" sqref="C59:C60"/>
     </sheetView>
   </sheetViews>
@@ -12725,10 +12742,10 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -12736,735 +12753,735 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>184</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>184</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>186</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>186</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>417</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>172</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>172</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>200</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>428</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>188</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>188</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>188</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>188</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>188</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>188</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>198</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>196</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>196</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>196</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>202</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>190</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>190</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>190</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>190</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>190</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>137</v>
@@ -13473,12 +13490,12 @@
         <v>208</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>137</v>
@@ -13487,12 +13504,12 @@
         <v>208</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>137</v>
@@ -13501,12 +13518,12 @@
         <v>208</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>137</v>
@@ -13515,12 +13532,12 @@
         <v>208</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>137</v>
@@ -13529,12 +13546,12 @@
         <v>208</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>137</v>
@@ -13543,26 +13560,26 @@
         <v>208</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>208</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>137</v>
@@ -13571,12 +13588,12 @@
         <v>211</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>137</v>
@@ -13585,12 +13602,12 @@
         <v>211</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>137</v>
@@ -13599,12 +13616,12 @@
         <v>211</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>137</v>
@@ -13613,12 +13630,12 @@
         <v>211</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>137</v>
@@ -13627,12 +13644,12 @@
         <v>213</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>137</v>
@@ -13641,12 +13658,12 @@
         <v>213</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>137</v>
@@ -13655,12 +13672,12 @@
         <v>213</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>137</v>
@@ -13669,12 +13686,12 @@
         <v>213</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>137</v>
@@ -13683,12 +13700,12 @@
         <v>213</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>137</v>
@@ -13697,385 +13714,385 @@
         <v>215</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>174</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>182</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>182</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>176</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>176</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>176</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>176</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -14101,18 +14118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_x00cd_ndice xmlns="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0">1</_x00cd_ndice>
-    <TaxCatchAll xmlns="a77d5170-f388-44e7-ac79-04d186fae979"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007CAF85F579D9C94D829ACD7F874C94AF" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="131b27aa05929388ee065934bbaf2bd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0" xmlns:ns3="a77d5170-f388-44e7-ac79-04d186fae979" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f2e4360ae98a7aac94ddb8c7d52d155" ns2:_="" ns3:_="">
     <xsd:import namespace="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0"/>
@@ -14355,6 +14360,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_x00cd_ndice xmlns="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0">1</_x00cd_ndice>
+    <TaxCatchAll xmlns="a77d5170-f388-44e7-ac79-04d186fae979"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14365,23 +14382,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D045991-694A-46C6-BD66-53D7FAE2E72A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a77d5170-f388-44e7-ac79-04d186fae979"/>
-    <ds:schemaRef ds:uri="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C206B9F-1746-4368-8EC2-BEED99B13E82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14400,6 +14400,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D045991-694A-46C6-BD66-53D7FAE2E72A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a77d5170-f388-44e7-ac79-04d186fae979"/>
+    <ds:schemaRef ds:uri="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14994FB0-1245-4FF0-9647-9FCB93A1C938}">
   <ds:schemaRefs>

--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.ferrari\Documents\R\automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E0C7AE-E009-4BF5-A39C-E8BB66AF0490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3561AB-01D9-4140-B863-088CF98E707E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{35A31CFB-0D6A-4E5D-AD17-F59A1D4E70CF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{35A31CFB-0D6A-4E5D-AD17-F59A1D4E70CF}"/>
   </bookViews>
   <sheets>
     <sheet name="filtros_linhas" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="511">
   <si>
     <t>demonstrativo</t>
   </si>
@@ -1472,9 +1472,6 @@
     <t>filter ( esfera_orcamentaria_codigo %in% c(1,2) &amp; unidade_orcamentaria_codigo  %in% c(33904,40904,25917,55902) &amp; nre1_categoria_economica_codigo %in% c(2) &amp; nre2_origem_receita_codigo_origem %in% c(2))</t>
   </si>
   <si>
-    <t xml:space="preserve"> filter ( esfera_orcamentaria_codigo %in% c(1,2) &amp; unidade_orcamentaria_codigo  %in% c(33904,40904,25917,55902) &amp;nre1_categoria_economica_codigo %in% c(2) &amp; nre2_origem_receita_codigo_origem %notin% c(2) )</t>
-  </si>
-  <si>
     <t>filter ( esfera_orcamentaria_codigo %in% c(1,2) &amp; unidade_orcamentaria_codigo  %in% c(33904,40904,25917,55902) &amp; nre1_categoria_economica_codigo %in% c(7,8))</t>
   </si>
   <si>
@@ -1575,6 +1572,18 @@
   </si>
   <si>
     <t>filter( esfera_orcamentaria_codigo %in% c(1,2) &amp; unidade_orcamentaria_codigo  %in% c(33904,40904,25917,55902) &amp; grupo_despesa_codigo_grupo %in% c(3) &amp; modalidade_aplicacao_codigo != c(91) &amp; elemento_despesa_codigo %in% c(57,58) )</t>
+  </si>
+  <si>
+    <t>filter ( esfera_orcamentaria_codigo %in% c(1,2) &amp; unidade_orcamentaria_codigo  %in% c(33904,40904,25917,55902) &amp;nre1_categoria_economica_codigo %in% c(2) &amp; nre2_origem_receita_codigo_origem %notin% c(2) )</t>
+  </si>
+  <si>
+    <t>filter ( esfera_orcamentaria_codigo %in% c(2) &amp; nr</t>
+  </si>
+  <si>
+    <t>natureza_despesa_detalhada_codigo</t>
+  </si>
+  <si>
+    <t>Natureza Despesa Detalhada Código</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1593,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1661,12 +1670,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1722,7 +1725,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1749,17 +1752,11 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1768,7 +1765,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2160,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120F59DA-1771-4227-8BE1-E7E8A96ECBA1}">
   <dimension ref="A1:N277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD159"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2240,7 +2237,7 @@
         <v>318</v>
       </c>
       <c r="F2" t="str">
-        <f>VLOOKUP(E2,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E2,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>demais_despesas</v>
       </c>
       <c r="G2" t="s">
@@ -2288,7 +2285,7 @@
         <v>318</v>
       </c>
       <c r="F3" t="str">
-        <f>VLOOKUP(E3,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E3,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>demais_despesas</v>
       </c>
       <c r="G3" t="s">
@@ -2336,7 +2333,7 @@
         <v>318</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP(E4,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E4,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>demais_despesas</v>
       </c>
       <c r="G4" t="s">
@@ -2384,7 +2381,7 @@
         <v>318</v>
       </c>
       <c r="F5" t="str">
-        <f>VLOOKUP(E5,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E5,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>demais_despesas</v>
       </c>
       <c r="G5" t="s">
@@ -2432,7 +2429,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="str">
-        <f>VLOOKUP(E6,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E6,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>aposentadorias</v>
       </c>
       <c r="G6" t="s">
@@ -2480,7 +2477,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP(E7,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E7,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>aposentadorias</v>
       </c>
       <c r="G7" t="s">
@@ -2528,7 +2525,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="str">
-        <f>VLOOKUP(E8,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E8,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>aposentadorias</v>
       </c>
       <c r="G8" t="s">
@@ -2576,7 +2573,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="str">
-        <f>VLOOKUP(E9,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E9,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>pensoes</v>
       </c>
       <c r="G9" t="s">
@@ -2624,7 +2621,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP(E10,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E10,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>pensoes</v>
       </c>
       <c r="G10" t="s">
@@ -2672,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP(E11,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E11,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>pensoes</v>
       </c>
       <c r="G11" t="s">
@@ -2720,7 +2717,7 @@
         <v>314</v>
       </c>
       <c r="F12" t="str">
-        <f>VLOOKUP(E12,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E12,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outros_beneficios</v>
       </c>
       <c r="G12" t="s">
@@ -2768,7 +2765,7 @@
         <v>314</v>
       </c>
       <c r="F13" t="str">
-        <f>VLOOKUP(E13,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E13,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outros_beneficios</v>
       </c>
       <c r="G13" t="s">
@@ -2816,7 +2813,7 @@
         <v>314</v>
       </c>
       <c r="F14" t="str">
-        <f>VLOOKUP(E14,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E14,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outros_beneficios</v>
       </c>
       <c r="G14" t="s">
@@ -2864,7 +2861,7 @@
         <v>316</v>
       </c>
       <c r="F15" t="str">
-        <f>VLOOKUP(E15,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E15,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rgps_para_o_rpps</v>
       </c>
       <c r="G15" t="s">
@@ -2912,7 +2909,7 @@
         <v>316</v>
       </c>
       <c r="F16" t="str">
-        <f>VLOOKUP(E16,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E16,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rgps_para_o_rpps</v>
       </c>
       <c r="G16" t="s">
@@ -2960,7 +2957,7 @@
         <v>316</v>
       </c>
       <c r="F17" t="str">
-        <f>VLOOKUP(E17,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E17,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rgps_para_o_rpps</v>
       </c>
       <c r="G17" t="s">
@@ -3008,7 +3005,7 @@
         <v>316</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(E18,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E18,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rgps_para_o_rpps</v>
       </c>
       <c r="G18" t="s">
@@ -3056,7 +3053,7 @@
         <v>320</v>
       </c>
       <c r="F19" t="str">
-        <f>VLOOKUP(E19,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E19,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>a_detalhar</v>
       </c>
       <c r="G19" t="s">
@@ -3104,7 +3101,7 @@
         <v>320</v>
       </c>
       <c r="F20" t="str">
-        <f>VLOOKUP(E20,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E20,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>a_detalhar</v>
       </c>
       <c r="G20" t="s">
@@ -3152,7 +3149,7 @@
         <v>320</v>
       </c>
       <c r="F21" t="str">
-        <f>VLOOKUP(E21,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E21,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>a_detalhar</v>
       </c>
       <c r="G21" t="s">
@@ -3200,7 +3197,7 @@
         <v>322</v>
       </c>
       <c r="F22" t="str">
-        <f>VLOOKUP(E22,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E22,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>despesas_previdenciarias_intra_orcamentarias_v</v>
       </c>
       <c r="G22" t="s">
@@ -3248,7 +3245,7 @@
         <v>322</v>
       </c>
       <c r="F23" t="str">
-        <f>VLOOKUP(E23,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E23,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>despesas_previdenciarias_intra_orcamentarias_v</v>
       </c>
       <c r="G23" t="s">
@@ -3296,7 +3293,7 @@
         <v>322</v>
       </c>
       <c r="F24" t="str">
-        <f>VLOOKUP(E24,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E24,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>despesas_previdenciarias_intra_orcamentarias_v</v>
       </c>
       <c r="G24" t="s">
@@ -3344,7 +3341,7 @@
         <v>324</v>
       </c>
       <c r="F25" t="str">
-        <f>VLOOKUP(E25,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E25,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_previdenciarias_exceto_intra_orcamentarias_i</v>
       </c>
       <c r="G25" t="s">
@@ -3392,7 +3389,7 @@
         <v>326</v>
       </c>
       <c r="F26" t="str">
-        <f>VLOOKUP(E26,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E26,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_correntes</v>
       </c>
       <c r="G26" t="s">
@@ -3440,7 +3437,7 @@
         <v>328</v>
       </c>
       <c r="F27" t="str">
-        <f>VLOOKUP(E27,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E27,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_de_contribuicoes</v>
       </c>
       <c r="G27" t="s">
@@ -3488,7 +3485,7 @@
         <v>330</v>
       </c>
       <c r="F28" t="str">
-        <f>VLOOKUP(E28,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E28,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>dos_empregadores</v>
       </c>
       <c r="G28" t="s">
@@ -3535,7 +3532,7 @@
         <v>332</v>
       </c>
       <c r="F29" t="str">
-        <f>VLOOKUP(E29,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E29,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_contribuicoes</v>
       </c>
       <c r="G29" t="s">
@@ -3583,7 +3580,7 @@
         <v>332</v>
       </c>
       <c r="F30" t="str">
-        <f>VLOOKUP(E30,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E30,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_contribuicoes</v>
       </c>
       <c r="G30" t="s">
@@ -3631,7 +3628,7 @@
         <v>332</v>
       </c>
       <c r="F31" t="str">
-        <f>VLOOKUP(E31,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E31,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_contribuicoes</v>
       </c>
       <c r="G31" t="s">
@@ -3678,7 +3675,7 @@
         <v>334</v>
       </c>
       <c r="F32" t="str">
-        <f>VLOOKUP(E32,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E32,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rpps_para_o_rgps</v>
       </c>
       <c r="G32" t="s">
@@ -3726,7 +3723,7 @@
         <v>334</v>
       </c>
       <c r="F33" t="str">
-        <f>VLOOKUP(E33,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E33,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rpps_para_o_rgps</v>
       </c>
       <c r="G33" t="s">
@@ -3774,7 +3771,7 @@
         <v>336</v>
       </c>
       <c r="F34" t="str">
-        <f>VLOOKUP(E34,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E34,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>demais_receitas_correntes</v>
       </c>
       <c r="G34" t="s">
@@ -3822,7 +3819,7 @@
         <v>336</v>
       </c>
       <c r="F35" t="str">
-        <f>VLOOKUP(E35,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E35,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>demais_receitas_correntes</v>
       </c>
       <c r="G35" t="s">
@@ -3870,7 +3867,7 @@
         <v>336</v>
       </c>
       <c r="F36" t="str">
-        <f>VLOOKUP(E36,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E36,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>demais_receitas_correntes</v>
       </c>
       <c r="G36" t="s">
@@ -3918,7 +3915,7 @@
         <v>338</v>
       </c>
       <c r="F37" t="str">
-        <f>VLOOKUP(E37,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E37,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>alienacao_de_bens_direitos_e_ativos</v>
       </c>
       <c r="G37" t="s">
@@ -3966,7 +3963,7 @@
         <v>338</v>
       </c>
       <c r="F38" t="str">
-        <f>VLOOKUP(E38,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E38,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>alienacao_de_bens_direitos_e_ativos</v>
       </c>
       <c r="G38" t="s">
@@ -4014,7 +4011,7 @@
         <v>340</v>
       </c>
       <c r="F39" t="str">
-        <f>VLOOKUP(E39,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E39,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_receitas_de_capital</v>
       </c>
       <c r="G39" t="s">
@@ -4062,7 +4059,7 @@
         <v>340</v>
       </c>
       <c r="F40" t="str">
-        <f>VLOOKUP(E40,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E40,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_receitas_de_capital</v>
       </c>
       <c r="G40" t="s">
@@ -4110,7 +4107,7 @@
         <v>342</v>
       </c>
       <c r="F41" t="str">
-        <f>VLOOKUP(E41,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E41,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_previdenciarias_intra_orcamentarias_ii</v>
       </c>
       <c r="G41" t="s">
@@ -4158,7 +4155,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="str">
-        <f>VLOOKUP(E42,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E42,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>aposentadorias</v>
       </c>
       <c r="G42" t="s">
@@ -4206,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="str">
-        <f>VLOOKUP(E43,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E43,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>aposentadorias</v>
       </c>
       <c r="G43" t="s">
@@ -4254,7 +4251,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="str">
-        <f>VLOOKUP(E44,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E44,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>aposentadorias</v>
       </c>
       <c r="G44" t="s">
@@ -4302,7 +4299,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="str">
-        <f>VLOOKUP(E45,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E45,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>pensoes</v>
       </c>
       <c r="G45" t="s">
@@ -4350,7 +4347,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="str">
-        <f>VLOOKUP(E46,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E46,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>pensoes</v>
       </c>
       <c r="G46" t="s">
@@ -4398,7 +4395,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="str">
-        <f>VLOOKUP(E47,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E47,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>pensoes</v>
       </c>
       <c r="G47" t="s">
@@ -4446,7 +4443,7 @@
         <v>314</v>
       </c>
       <c r="F48" t="str">
-        <f>VLOOKUP(E48,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E48,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outros_beneficios</v>
       </c>
       <c r="G48" t="s">
@@ -4494,7 +4491,7 @@
         <v>314</v>
       </c>
       <c r="F49" t="str">
-        <f>VLOOKUP(E49,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E49,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outros_beneficios</v>
       </c>
       <c r="G49" t="s">
@@ -4542,7 +4539,7 @@
         <v>314</v>
       </c>
       <c r="F50" t="str">
-        <f>VLOOKUP(E50,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E50,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outros_beneficios</v>
       </c>
       <c r="G50" t="s">
@@ -4590,7 +4587,7 @@
         <v>320</v>
       </c>
       <c r="F51" t="str">
-        <f>VLOOKUP(E51,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E51,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>a_detalhar</v>
       </c>
       <c r="G51" t="s">
@@ -4638,7 +4635,7 @@
         <v>320</v>
       </c>
       <c r="F52" t="str">
-        <f>VLOOKUP(E52,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E52,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>a_detalhar</v>
       </c>
       <c r="G52" t="s">
@@ -4686,7 +4683,7 @@
         <v>320</v>
       </c>
       <c r="F53" t="str">
-        <f>VLOOKUP(E53,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E53,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>a_detalhar</v>
       </c>
       <c r="G53" t="s">
@@ -4734,7 +4731,7 @@
         <v>322</v>
       </c>
       <c r="F54" t="str">
-        <f>VLOOKUP(E54,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E54,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>despesas_previdenciarias_intra_orcamentarias_v</v>
       </c>
       <c r="G54" t="s">
@@ -4782,7 +4779,7 @@
         <v>322</v>
       </c>
       <c r="F55" t="str">
-        <f>VLOOKUP(E55,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E55,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>despesas_previdenciarias_intra_orcamentarias_v</v>
       </c>
       <c r="G55" t="s">
@@ -4830,7 +4827,7 @@
         <v>322</v>
       </c>
       <c r="F56" t="str">
-        <f>VLOOKUP(E56,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E56,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>despesas_previdenciarias_intra_orcamentarias_v</v>
       </c>
       <c r="G56" t="s">
@@ -4878,7 +4875,7 @@
         <v>326</v>
       </c>
       <c r="F57" t="str">
-        <f>VLOOKUP(E57,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E57,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_correntes</v>
       </c>
       <c r="G57" t="s">
@@ -4926,7 +4923,7 @@
         <v>349</v>
       </c>
       <c r="F58" t="str">
-        <f>VLOOKUP(E58,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E58,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_tributaria</v>
       </c>
       <c r="G58" t="s">
@@ -4974,7 +4971,7 @@
         <v>349</v>
       </c>
       <c r="F59" t="str">
-        <f>VLOOKUP(E59,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E59,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_tributaria</v>
       </c>
       <c r="G59" t="s">
@@ -5022,7 +5019,7 @@
         <v>328</v>
       </c>
       <c r="F60" t="str">
-        <f>VLOOKUP(E60,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E60,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_de_contribuicoes</v>
       </c>
       <c r="G60" t="s">
@@ -5070,7 +5067,7 @@
         <v>328</v>
       </c>
       <c r="F61" t="str">
-        <f>VLOOKUP(E61,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E61,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_de_contribuicoes</v>
       </c>
       <c r="G61" t="s">
@@ -5118,7 +5115,7 @@
         <v>351</v>
       </c>
       <c r="F62" t="str">
-        <f>VLOOKUP(E62,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E62,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_patrimonial</v>
       </c>
       <c r="G62" t="s">
@@ -5166,7 +5163,7 @@
         <v>351</v>
       </c>
       <c r="F63" t="str">
-        <f>VLOOKUP(E63,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E63,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_patrimonial</v>
       </c>
       <c r="G63" t="s">
@@ -5214,7 +5211,7 @@
         <v>352</v>
       </c>
       <c r="F64" t="str">
-        <f>VLOOKUP(E64,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E64,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_agropecuaria</v>
       </c>
       <c r="G64" t="s">
@@ -5262,7 +5259,7 @@
         <v>352</v>
       </c>
       <c r="F65" t="str">
-        <f>VLOOKUP(E65,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E65,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_agropecuaria</v>
       </c>
       <c r="G65" t="s">
@@ -5310,7 +5307,7 @@
         <v>353</v>
       </c>
       <c r="F66" t="str">
-        <f>VLOOKUP(E66,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E66,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_industrial</v>
       </c>
       <c r="G66" t="s">
@@ -5358,7 +5355,7 @@
         <v>353</v>
       </c>
       <c r="F67" t="str">
-        <f>VLOOKUP(E67,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E67,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_industrial</v>
       </c>
       <c r="G67" t="s">
@@ -5406,7 +5403,7 @@
         <v>355</v>
       </c>
       <c r="F68" t="str">
-        <f>VLOOKUP(E68,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E68,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_de_servicos</v>
       </c>
       <c r="G68" t="s">
@@ -5454,7 +5451,7 @@
         <v>355</v>
       </c>
       <c r="F69" t="str">
-        <f>VLOOKUP(E69,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E69,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receita_de_servicos</v>
       </c>
       <c r="G69" t="s">
@@ -5502,7 +5499,7 @@
         <v>356</v>
       </c>
       <c r="F70" t="str">
-        <f>VLOOKUP(E70,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E70,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>transferencias_correntes</v>
       </c>
       <c r="G70" t="s">
@@ -5550,7 +5547,7 @@
         <v>356</v>
       </c>
       <c r="F71" t="str">
-        <f>VLOOKUP(E71,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E71,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>transferencias_correntes</v>
       </c>
       <c r="G71" t="s">
@@ -5598,7 +5595,7 @@
         <v>354</v>
       </c>
       <c r="F72" t="str">
-        <f>VLOOKUP(E72,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E72,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_correntes_a_classificar</v>
       </c>
       <c r="G72" t="s">
@@ -5646,7 +5643,7 @@
         <v>354</v>
       </c>
       <c r="F73" t="str">
-        <f>VLOOKUP(E73,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E73,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_correntes_a_classificar</v>
       </c>
       <c r="G73" t="s">
@@ -5694,7 +5691,7 @@
         <v>357</v>
       </c>
       <c r="F74" t="str">
-        <f>VLOOKUP(E74,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E74,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_receitas_correntes</v>
       </c>
       <c r="G74" t="s">
@@ -5742,7 +5739,7 @@
         <v>357</v>
       </c>
       <c r="F75" t="str">
-        <f>VLOOKUP(E75,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E75,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_receitas_correntes</v>
       </c>
       <c r="G75" t="s">
@@ -5790,7 +5787,7 @@
         <v>358</v>
       </c>
       <c r="F76" t="str">
-        <f>VLOOKUP(E76,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E76,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>receitas_de_capital</v>
       </c>
       <c r="G76" t="s">
@@ -5838,7 +5835,7 @@
         <v>359</v>
       </c>
       <c r="F77" t="str">
-        <f>VLOOKUP(E77,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E77,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>operacoes_de_credito</v>
       </c>
       <c r="G77" t="s">
@@ -5886,7 +5883,7 @@
         <v>359</v>
       </c>
       <c r="F78" t="str">
-        <f>VLOOKUP(E78,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E78,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>operacoes_de_credito</v>
       </c>
       <c r="G78" t="s">
@@ -5934,7 +5931,7 @@
         <v>360</v>
       </c>
       <c r="F79" t="str">
-        <f>VLOOKUP(E79,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E79,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>alienacao_de_bens</v>
       </c>
       <c r="G79" t="s">
@@ -5982,7 +5979,7 @@
         <v>360</v>
       </c>
       <c r="F80" t="str">
-        <f>VLOOKUP(E80,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E80,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>alienacao_de_bens</v>
       </c>
       <c r="G80" t="s">
@@ -6030,7 +6027,7 @@
         <v>361</v>
       </c>
       <c r="F81" t="str">
-        <f>VLOOKUP(E81,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E81,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>transferencias_de_capital</v>
       </c>
       <c r="G81" t="s">
@@ -6078,7 +6075,7 @@
         <v>361</v>
       </c>
       <c r="F82" t="str">
-        <f>VLOOKUP(E82,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E82,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>transferencias_de_capital</v>
       </c>
       <c r="G82" t="s">
@@ -6126,7 +6123,7 @@
         <v>340</v>
       </c>
       <c r="F83" t="str">
-        <f>VLOOKUP(E83,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E83,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_receitas_de_capital</v>
       </c>
       <c r="G83" t="s">
@@ -6174,7 +6171,7 @@
         <v>340</v>
       </c>
       <c r="F84" t="str">
-        <f>VLOOKUP(E84,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E84,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_receitas_de_capital</v>
       </c>
       <c r="G84" t="s">
@@ -6222,7 +6219,7 @@
         <v>365</v>
       </c>
       <c r="F85" t="str">
-        <f>VLOOKUP(E85,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E85,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>despesas_correntes</v>
       </c>
       <c r="G85" t="s">
@@ -6270,7 +6267,7 @@
         <v>362</v>
       </c>
       <c r="F86" t="str">
-        <f>VLOOKUP(E86,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E86,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>pessoal_e_encargos_sociais</v>
       </c>
       <c r="G86" t="s">
@@ -6318,7 +6315,7 @@
         <v>364</v>
       </c>
       <c r="F87" t="str">
-        <f>VLOOKUP(E87,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E87,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>juros_e_encargos_da_divida</v>
       </c>
       <c r="G87" t="s">
@@ -6366,7 +6363,7 @@
         <v>398</v>
       </c>
       <c r="F88" t="str">
-        <f>VLOOKUP(E88,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E88,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>outras_despesas_correntes</v>
       </c>
       <c r="G88" t="s">
@@ -6414,7 +6411,7 @@
         <v>366</v>
       </c>
       <c r="F89" t="str">
-        <f>VLOOKUP(E89,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E89,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>despesas_de_capital</v>
       </c>
       <c r="G89" t="s">
@@ -6462,7 +6459,7 @@
         <v>367</v>
       </c>
       <c r="F90" t="str">
-        <f>VLOOKUP(E90,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E90,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>investimentos</v>
       </c>
       <c r="G90" t="s">
@@ -6510,7 +6507,7 @@
         <v>368</v>
       </c>
       <c r="F91" t="str">
-        <f>VLOOKUP(E91,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E91,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>inversoes_financeiras</v>
       </c>
       <c r="G91" t="s">
@@ -6558,7 +6555,7 @@
         <v>369</v>
       </c>
       <c r="F92" t="str">
-        <f>VLOOKUP(E92,atributos!$E$2:$F$192,2,FALSE)</f>
+        <f>VLOOKUP(E92,atributos!$E$2:$F$193,2,FALSE)</f>
         <v>amortizacao_da_divida</v>
       </c>
       <c r="G92" t="s">
@@ -7749,7 +7746,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ADC6DB87-27D1-4784-8B23-3260EAB2CAD4}">
           <x14:formula1>
-            <xm:f>atributos!$E$2:$E$99</xm:f>
+            <xm:f>atributos!$E$2:$E$100</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E253</xm:sqref>
         </x14:dataValidation>
@@ -10573,10 +10570,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE4FA7B-BC68-4917-BC92-B724DE196E8A}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10602,12 +10599,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>184</v>
       </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
         <v>320</v>
       </c>
@@ -10616,27 +10615,31 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>380</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>186</v>
       </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
         <v>338</v>
       </c>
@@ -10646,27 +10649,31 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>388</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>220</v>
       </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
@@ -10676,12 +10683,14 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>205</v>
       </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
         <v>316</v>
       </c>
@@ -10691,12 +10700,14 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>206</v>
       </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
         <v>334</v>
       </c>
@@ -10706,12 +10717,14 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>207</v>
       </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
         <v>318</v>
       </c>
@@ -10721,12 +10734,14 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>203</v>
       </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
         <v>336</v>
       </c>
@@ -10736,42 +10751,48 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>382</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>385</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>193</v>
       </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
         <v>322</v>
       </c>
@@ -10781,12 +10802,14 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
         <v>330</v>
       </c>
@@ -10795,572 +10818,748 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="9" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="9" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A19" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A20" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="9" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A21" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A22" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A23" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A24" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="9" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A26" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A27" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A30" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E30" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A31" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="9" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A32" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A33" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A34" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A35" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A36" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A37" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E37" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="9" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A38" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="9" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A39" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A40" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A41" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A42" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A43" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A44" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="9" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A45" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A46" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A47" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A48" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A49" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="9" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A50" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A51" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A52" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A53" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A54" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A55" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A56" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A57" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A58" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A59" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>416</v>
-      </c>
-      <c r="B54" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>420</v>
-      </c>
-      <c r="B55" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>426</v>
-      </c>
-      <c r="B56" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>427</v>
-      </c>
-      <c r="B57" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>433</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>438</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A60" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>445</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A61" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A62" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>446</v>
-      </c>
-      <c r="B61" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>447</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A63" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>448</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A64" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>451</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A65" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>452</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A66" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="18.75">
-      <c r="A66" t="s">
-        <v>455</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A67" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A68" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B67" t="s">
-        <v>491</v>
-      </c>
+      <c r="B68" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="E1:F37" xr:uid="{CEE4FA7B-BC68-4917-BC92-B724DE196E8A}">
@@ -11389,178 +11588,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C2" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75">
+      <c r="A3" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75">
+      <c r="A4" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75">
+      <c r="A5" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75">
+      <c r="A6" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75">
+      <c r="A8" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75">
+      <c r="A9" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75">
+      <c r="A10" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75">
+      <c r="A11" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75">
+      <c r="A12" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75">
+      <c r="A13" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75">
+      <c r="A14" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75">
+      <c r="A15" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75">
-      <c r="A3" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75">
-      <c r="A4" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75">
-      <c r="A5" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75">
-      <c r="A6" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75">
-      <c r="A7" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75">
-      <c r="A8" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75">
-      <c r="A9" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75">
-      <c r="A10" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75">
-      <c r="A11" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75">
-      <c r="A12" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75">
-      <c r="A13" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75">
-      <c r="A14" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75">
-      <c r="A15" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="B15" s="16" t="s">
+    <row r="16" spans="1:3" ht="18.75">
+      <c r="A16" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75">
-      <c r="A16" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -11856,8 +12055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376900E8-16D0-4FEB-A5AB-C0BD20B8D839}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11866,9 +12065,9 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="130" style="21" customWidth="1"/>
+    <col min="7" max="7" width="130" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11890,7 +12089,7 @@
       <c r="F1" t="s">
         <v>401</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>402</v>
       </c>
     </row>
@@ -11914,80 +12113,80 @@
         <f>VLOOKUP(E2,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>demais_despesas</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="19" customFormat="1">
-      <c r="A3" s="19">
+    <row r="3" spans="1:7" s="15" customFormat="1">
+      <c r="A3" s="15">
         <v>2024</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="22" t="str">
+      <c r="F3" s="18" t="str">
         <f>VLOOKUP(E3,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>aposentadorias</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="19" customFormat="1">
-      <c r="A4" s="19">
+      <c r="G3" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="15" customFormat="1">
+      <c r="A4" s="15">
         <v>2024</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="22" t="str">
+      <c r="F4" s="18" t="str">
         <f>VLOOKUP(E4,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>pensoes</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="19" customFormat="1">
-      <c r="A5" s="19">
+    <row r="5" spans="1:7" s="15" customFormat="1">
+      <c r="A5" s="15">
         <v>2024</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="F5" s="22" t="str">
+      <c r="F5" s="18" t="str">
         <f>VLOOKUP(E5,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>outros_beneficios</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>507</v>
+      <c r="G5" s="16" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12010,7 +12209,7 @@
         <f>VLOOKUP(E6,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rgps_para_o_rpps</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="17" t="s">
         <v>462</v>
       </c>
     </row>
@@ -12034,7 +12233,7 @@
         <f>VLOOKUP(E7,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>a_detalhar</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>463</v>
       </c>
     </row>
@@ -12058,7 +12257,7 @@
         <f>VLOOKUP(E8,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>despesas_previdenciarias_intra_orcamentarias_v</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>464</v>
       </c>
     </row>
@@ -12082,7 +12281,7 @@
         <f>VLOOKUP(E9,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>receitas_previdenciarias_exceto_intra_orcamentarias_i</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="17" t="s">
         <v>465</v>
       </c>
     </row>
@@ -12106,7 +12305,7 @@
         <f>VLOOKUP(E10,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>receitas_correntes</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>466</v>
       </c>
     </row>
@@ -12130,7 +12329,7 @@
         <f>VLOOKUP(E11,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>receitas_de_contribuicoes</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>467</v>
       </c>
     </row>
@@ -12154,7 +12353,7 @@
         <f>VLOOKUP(E12,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>dos_empregadores</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>468</v>
       </c>
     </row>
@@ -12178,7 +12377,7 @@
         <f>VLOOKUP(E13,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>outras_contribuicoes</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="17" t="s">
         <v>469</v>
       </c>
     </row>
@@ -12202,7 +12401,7 @@
         <f>VLOOKUP(E14,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>compensacao_previdenciaria_do_rpps_para_o_rgps</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="17" t="s">
         <v>470</v>
       </c>
     </row>
@@ -12226,7 +12425,7 @@
         <f>VLOOKUP(E15,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>demais_receitas_correntes</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="17" t="s">
         <v>471</v>
       </c>
     </row>
@@ -12250,7 +12449,7 @@
         <f>VLOOKUP(E16,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>alienacao_de_bens_direitos_e_ativos</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="17" t="s">
         <v>472</v>
       </c>
     </row>
@@ -12274,8 +12473,8 @@
         <f>VLOOKUP(E17,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>outras_receitas_de_capital</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>473</v>
+      <c r="G17" s="17" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12298,8 +12497,8 @@
         <f>VLOOKUP(E18,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>receitas_previdenciarias_intra_orcamentarias_ii</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>474</v>
+      <c r="G18" s="17" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12312,6 +12511,9 @@
       <c r="C19" t="s">
         <v>295</v>
       </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
       <c r="E19" t="s">
         <v>326</v>
       </c>
@@ -12319,6 +12521,9 @@
         <f>VLOOKUP(E19,atributos!$E$1:$F$49,2,FALSE)</f>
         <v>receitas_correntes</v>
       </c>
+      <c r="G19" s="17" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
@@ -12330,6 +12535,9 @@
       <c r="C20" t="s">
         <v>295</v>
       </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
       <c r="E20" t="s">
         <v>349</v>
       </c>
@@ -12348,6 +12556,9 @@
       <c r="C21" t="s">
         <v>295</v>
       </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
       <c r="E21" t="s">
         <v>328</v>
       </c>
@@ -12366,6 +12577,9 @@
       <c r="C22" t="s">
         <v>295</v>
       </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
       <c r="E22" t="s">
         <v>351</v>
       </c>
@@ -12384,6 +12598,9 @@
       <c r="C23" t="s">
         <v>295</v>
       </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
       <c r="E23" t="s">
         <v>352</v>
       </c>
@@ -12402,6 +12619,9 @@
       <c r="C24" t="s">
         <v>295</v>
       </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
       <c r="E24" t="s">
         <v>353</v>
       </c>
@@ -12421,6 +12641,9 @@
       <c r="C25" t="s">
         <v>295</v>
       </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
       <c r="E25" t="s">
         <v>355</v>
       </c>
@@ -12439,6 +12662,9 @@
       <c r="C26" t="s">
         <v>295</v>
       </c>
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
       <c r="E26" t="s">
         <v>356</v>
       </c>
@@ -12457,6 +12683,9 @@
       <c r="C27" t="s">
         <v>295</v>
       </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
       <c r="E27" t="s">
         <v>354</v>
       </c>
@@ -12475,6 +12704,9 @@
       <c r="C28" t="s">
         <v>295</v>
       </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
       <c r="E28" t="s">
         <v>357</v>
       </c>
@@ -12493,6 +12725,9 @@
       <c r="C29" t="s">
         <v>295</v>
       </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
       <c r="E29" t="s">
         <v>358</v>
       </c>
@@ -12511,6 +12746,9 @@
       <c r="C30" t="s">
         <v>295</v>
       </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
       <c r="E30" t="s">
         <v>359</v>
       </c>
@@ -12529,6 +12767,9 @@
       <c r="C31" t="s">
         <v>295</v>
       </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
       <c r="E31" t="s">
         <v>360</v>
       </c>
@@ -12547,6 +12788,9 @@
       <c r="C32" t="s">
         <v>295</v>
       </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
       <c r="E32" t="s">
         <v>361</v>
       </c>
@@ -12565,6 +12809,9 @@
       <c r="C33" t="s">
         <v>295</v>
       </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
       <c r="E33" t="s">
         <v>340</v>
       </c>
@@ -12583,6 +12830,9 @@
       <c r="C34" t="s">
         <v>295</v>
       </c>
+      <c r="D34" t="s">
+        <v>459</v>
+      </c>
       <c r="E34" t="s">
         <v>365</v>
       </c>
@@ -12601,6 +12851,9 @@
       <c r="C35" t="s">
         <v>295</v>
       </c>
+      <c r="D35" t="s">
+        <v>459</v>
+      </c>
       <c r="E35" t="s">
         <v>362</v>
       </c>
@@ -12619,6 +12872,9 @@
       <c r="C36" t="s">
         <v>295</v>
       </c>
+      <c r="D36" t="s">
+        <v>459</v>
+      </c>
       <c r="E36" t="s">
         <v>364</v>
       </c>
@@ -12637,6 +12893,9 @@
       <c r="C37" t="s">
         <v>295</v>
       </c>
+      <c r="D37" t="s">
+        <v>459</v>
+      </c>
       <c r="E37" t="s">
         <v>398</v>
       </c>
@@ -12655,6 +12914,9 @@
       <c r="C38" t="s">
         <v>295</v>
       </c>
+      <c r="D38" t="s">
+        <v>459</v>
+      </c>
       <c r="E38" t="s">
         <v>366</v>
       </c>
@@ -12673,6 +12935,9 @@
       <c r="C39" t="s">
         <v>295</v>
       </c>
+      <c r="D39" t="s">
+        <v>459</v>
+      </c>
       <c r="E39" t="s">
         <v>367</v>
       </c>
@@ -12691,6 +12956,9 @@
       <c r="C40" t="s">
         <v>295</v>
       </c>
+      <c r="D40" t="s">
+        <v>459</v>
+      </c>
       <c r="E40" t="s">
         <v>368</v>
       </c>
@@ -12708,6 +12976,9 @@
       </c>
       <c r="C41" t="s">
         <v>295</v>
+      </c>
+      <c r="D41" t="s">
+        <v>459</v>
       </c>
       <c r="E41" t="s">
         <v>369</v>
@@ -12726,8 +12997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D527EEA-838C-472C-B303-51890342D295}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12742,1356 +13013,1356 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="C11" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C34" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="C46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="B9" s="14" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="C60" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="B10" s="14" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C80" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D90" s="12" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="D11" s="14" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="14" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="14" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" s="14" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="D96" s="12" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="D97" s="14" t="s">
+      <c r="B97" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D97" s="12" t="s">
         <v>425</v>
       </c>
     </row>
@@ -14107,7 +14378,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99C16169-7654-4C22-9AE1-7F4007ED34F5}">
           <x14:formula1>
-            <xm:f>atributos!$B$2:$B$99</xm:f>
+            <xm:f>atributos!$B$2:$B$100</xm:f>
           </x14:formula1>
           <xm:sqref>C97:C98 C2:C95</xm:sqref>
         </x14:dataValidation>
@@ -14361,6 +14632,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0">
@@ -14370,15 +14650,6 @@
     <TaxCatchAll xmlns="a77d5170-f388-44e7-ac79-04d186fae979"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14401,6 +14672,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14994FB0-1245-4FF0-9647-9FCB93A1C938}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D045991-694A-46C6-BD66-53D7FAE2E72A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -14415,12 +14694,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14994FB0-1245-4FF0-9647-9FCB93A1C938}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.ferrari\Documents\R\automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3561AB-01D9-4140-B863-088CF98E707E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F830D-1C7A-43C8-A626-5D2B4477069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{35A31CFB-0D6A-4E5D-AD17-F59A1D4E70CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{35A31CFB-0D6A-4E5D-AD17-F59A1D4E70CF}"/>
   </bookViews>
   <sheets>
     <sheet name="filtros_linhas" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="514">
   <si>
     <t>demonstrativo</t>
   </si>
@@ -1584,6 +1584,15 @@
   </si>
   <si>
     <t>Natureza Despesa Detalhada Código</t>
+  </si>
+  <si>
+    <t>fonte_recursos_detalhada_codigo</t>
+  </si>
+  <si>
+    <t>Fonte de Recurso Detalhada</t>
+  </si>
+  <si>
+    <t>plano_orcamentario_codigo_po</t>
   </si>
 </sst>
 </file>
@@ -10573,7 +10582,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11470,7 +11479,7 @@
         <v>446</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -12997,8 +13006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D527EEA-838C-472C-B303-51890342D295}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13122,41 +13131,41 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="12" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>493</v>
+        <v>186</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>457</v>
@@ -13164,16 +13173,16 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>493</v>
+        <v>186</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13201,7 +13210,7 @@
         <v>493</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -13215,7 +13224,7 @@
         <v>493</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -13229,35 +13238,35 @@
         <v>493</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>192</v>
+        <v>493</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>192</v>
+        <v>493</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -13271,7 +13280,7 @@
         <v>192</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -13285,7 +13294,7 @@
         <v>192</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -13299,77 +13308,77 @@
         <v>192</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>494</v>
+        <v>192</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>172</v>
+        <v>494</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>492</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>492</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -13383,7 +13392,7 @@
         <v>200</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13397,7 +13406,7 @@
         <v>200</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -13411,7 +13420,7 @@
         <v>200</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -13425,7 +13434,7 @@
         <v>200</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -13439,88 +13448,88 @@
         <v>200</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>492</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>495</v>
+        <v>200</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="12" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>492</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>496</v>
+        <v>200</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="12" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>459</v>
+        <v>137</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>178</v>
+        <v>511</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>178</v>
+        <v>511</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>409</v>
@@ -13537,7 +13546,7 @@
         <v>188</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13551,7 +13560,7 @@
         <v>188</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -13565,7 +13574,7 @@
         <v>188</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -13579,49 +13588,49 @@
         <v>188</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13635,35 +13644,35 @@
         <v>196</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13752,16 +13761,16 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="12" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>137</v>
+        <v>459</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>208</v>
+        <v>509</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13775,7 +13784,7 @@
         <v>208</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13789,7 +13798,7 @@
         <v>208</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -13803,7 +13812,7 @@
         <v>208</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -13817,7 +13826,7 @@
         <v>208</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -13831,21 +13840,21 @@
         <v>208</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>459</v>
+        <v>137</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>509</v>
+        <v>208</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -14116,30 +14125,30 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>182</v>
+        <v>513</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -14153,35 +14162,35 @@
         <v>182</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>501</v>
+        <v>182</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>180</v>
+        <v>501</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -14209,7 +14218,7 @@
         <v>180</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -14223,7 +14232,7 @@
         <v>180</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -14237,12 +14246,12 @@
         <v>180</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>459</v>
@@ -14251,21 +14260,21 @@
         <v>180</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>502</v>
+        <v>180</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -14284,7 +14293,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>492</v>
@@ -14293,7 +14302,7 @@
         <v>176</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -14307,12 +14316,12 @@
         <v>176</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>492</v>
@@ -14321,7 +14330,7 @@
         <v>176</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -14340,39 +14349,40 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>492</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>492</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D97" xr:uid="{3D527EEA-838C-472C-B303-51890342D295}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
-      <sortCondition ref="A1:A97"/>
+      <sortCondition ref="C1:C97"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -14380,7 +14390,7 @@
           <x14:formula1>
             <xm:f>atributos!$B$2:$B$100</xm:f>
           </x14:formula1>
-          <xm:sqref>C97:C98 C2:C95</xm:sqref>
+          <xm:sqref>C97:C98 C2:C94</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14389,6 +14399,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007CAF85F579D9C94D829ACD7F874C94AF" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="131b27aa05929388ee065934bbaf2bd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0" xmlns:ns3="a77d5170-f388-44e7-ac79-04d186fae979" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f2e4360ae98a7aac94ddb8c7d52d155" ns2:_="" ns3:_="">
     <xsd:import namespace="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0"/>
@@ -14631,15 +14650,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14653,6 +14663,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14994FB0-1245-4FF0-9647-9FCB93A1C938}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C206B9F-1746-4368-8EC2-BEED99B13E82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14667,14 +14685,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14994FB0-1245-4FF0-9647-9FCB93A1C938}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
